--- a/data/Producao_tecnica_Egressos.xlsx
+++ b/data/Producao_tecnica_Egressos.xlsx
@@ -1275,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,81 +1297,6 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Informações Gerais</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Curso Semanal: Março até Dezembro de 2022. Online. "Curso de Alta Especialización. 2022. Un continente, miradas comparadas. Los universos coloniales americanos y las monarquías ibéricas".. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CONFERÊNCIA DE ABERTURA DA II SEMANA ACADÊMICA DA ESCOLA NAVAL.DEFESA E CIÊNCIA NA ARQUITETURA MILITAR PORTUGUESA DO SÉCULO XVIII. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>I Jornada de Egressos Prof. Manolo Florentino.Tratados de arquitetura militar: fontes de estudos históricos em diálogo. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Oficina de Leitura Paleográfica de Textos Portugueses - Época Medieval e Moderna. 2021. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SILVA, L. N. O.. I Jornada de Egressos Prof. Manolo Florentino. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,52 +1387,55 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>48º Encontro Anual da ANPOCS. Sessão Especial 06 - Violência política, respostas sociais e efeitos do conflito Israel-Palestina para o Brasil. 2024. (Congresso).</t>
+          <t>RIBEIRO, Guilherme L.. O discurso anticomunista e a Ação Democrática Parlamentar nos anos 1960. 2023; Tema:
+						O discurso anticomunista e a Ação Democrática Parlamentar nos anos 1960. (Site).</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Usos Políticos do Holocausto e do Genocídio. Instrumentalização do holocausto e do antissemitismo no Brasil. 2024. (Congresso).</t>
+          <t>RIBEIRO, Guilherme L.. 'Os anos JK' e 'Jango': o olhar cinematográfico de Silvio Tendler para o Brasil. 2023; Tema:
+						"Os anos JK" e "Jango": o olhar cinematográfico de Silvio Tendler para o Brasil. (Site).</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>História Política e Extrema-Direita. Comunidade de Concretude em tempos de pós-fascismo. 2023. (Congresso).</t>
+          <t>RIBEIRO, Guilherme L.. Debates eleitorais: para quê e para quem. 2022; Tema:
+						Debates eleitorais. (Site).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1515,15 +1443,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Genocídios e Práticas Genocidárias Contemporâneas.Genocídio Indígena e Ecocídio.
-						2022. (Encontro).</t>
+          <t>RIBEIRO, Guilherme L.. O que são frentes parlamentares?. 2022; Tema:
+						Frentes parlamentares. (Site).</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1531,121 +1459,124 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Israel Imaginária na Diplomacia Brasileira de Bolsonaro.Bolsonarismo e o Judeu Imaginário. 2021. (Seminário).</t>
+          <t>DI LOURENÇO, J.. Laboratório História e Natureza - LabHeN/UFRJ. 2021. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gherman, M.;MELO MIZRAHI, GABRIEL. Usos Políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
+          <t>DI LOURENÇO, J.. Laboratório História e Natureza - LabHeN/UFRJ. 2021. (Site).</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GHERMAN, MICHEL ;MIZRAHI, G. M.. História Política e Extrema-Direita. 2023. (Congresso).</t>
+          <t>NASCIMENTO, L. G.. História da Historiografia: International Journal of Theory and History of Historiography. 2022. (Site).</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gabriel Melo Mizrahi</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MIZRAHI, G. M.; HERZ, Monica ;Gherman, M.. Israel Imaginária na diplomacia brasileira de Bolsonaro. 2021. (Congresso).</t>
+          <t>ERICHSEN, Lucas. Dia Nacional da Onça-Pintada. 2023; Tema:
+						Estudos dos animais. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Colóquio Teatro e Sociedade."Controvérsias em torno do papel do ensaiador de teatro no Brasil dos séculos XIX-XX".
-						2021. (Simpósio).</t>
+          <t>ERICHSEN, Lucas. 'Será que os polvos sonham?'. 2023; Tema:
+						Estudos dos animais. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Conversas Sobre Teatro e Sociedade. 2021. (Outra).</t>
+          <t>ERICHSEN, Lucas. Já pensou na jornada da carne que consumimos e quer dica de leitura?. 2023; Tema:
+						Estudos dos animais; História Ambiental; História da Tecnologia. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IX Encontro de Pesquisa em História.Aymond, quem é Aymond? A história do garganta de ouro: o artista transformista argentino e seu impacto no Teatro Brasileiro"..
-						2021. (Encontro).</t>
+          <t>ERICHSEN, Lucas. Os pombos-correio. 2023; Tema:
+						Estudos dos animais. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CESÁRIO, G. Z.. IV Encontro Fluminense de Teoria da História e Historiografia. 2021. (Outro).</t>
+          <t>ERICHSEN, Lucas. Filme em Destaque: 'Bibiru: kaikuxi panema'. 2023; Tema:
+						Estudos dos animais - Indicação de filme. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1653,15 +1584,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.. O discurso anticomunista e a Ação Democrática Parlamentar nos anos 1960. 2023; Tema:
-						O discurso anticomunista e a Ação Democrática Parlamentar nos anos 1960. (Site).</t>
+          <t>ERICHSEN, Lucas. O iegue e os grupos Arawakan/Aruaque das regiões do Caribe e América do Sul. 2023; Tema:
+						Estudos dos animais. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1669,62 +1600,63 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.. 'Os anos JK' e 'Jango': o olhar cinematográfico de Silvio Tendler para o Brasil. 2023; Tema:
-						"Os anos JK" e "Jango": o olhar cinematográfico de Silvio Tendler para o Brasil. (Site).</t>
+          <t>ERICHSEN, Lucas. Descubra a curiosa história dos cães nos matadouros!. 2023; Tema:
+						Estudos dos animais. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.. Debates eleitorais: para quê e para quem. 2022; Tema:
-						Debates eleitorais. (Site).</t>
+          <t>ERICHSEN, Lucas. A transmissão cultural entre primatas não-humanos. 2023; Tema:
+						Estudos dos animais. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Guilherme Leite Ribeiro</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RIBEIRO, Guilherme L.. O que são frentes parlamentares?. 2022; Tema:
-						Frentes parlamentares. (Site).</t>
+          <t>ERICHSEN, Lucas. Hoje temos uma dica de leitura aos interessados em estudos dos animais.. 2023; Tema:
+						Estudos dos animais - Dica de leitura. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>I Semana Canábica do Núcleo de Estudos Interdisciplinares em Cannabis - NEICANN/UNESP-Botucatu) g.História da maconha e sua proibição no Brasil. 2024. (Outra).</t>
+          <t>ERICHSEN, Lucas; RATTES, C. L. O. L. . Ibama e a criação de animais silvestres. 2023; Tema:
+						Estudos dos animais, legislação ambiental, animais silvestres. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1732,15 +1664,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>32º Simpósio Nacional de História.A proibição da cannabis no Brasil: a emergência da criminalização do ?pito do pango? (RJ) e da ?diamba? (MA).
-						2023. (Simpósio).</t>
+          <t>ERICHSEN, Lucas. Dia do Historiador. 2023; Tema:
+						Dia do Historiador. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1748,14 +1680,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Expo Cannabis Brasil. Cannabis, Literatura e Quadrinhos. 2023. (Feira).</t>
+          <t>ERICHSEN, Lucas. Dia Nacional da Onça-Pintada!. 2023; Tema:
+						Dia Nacional da Onça-Pintada!. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1763,14 +1696,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>I Seminário sobre Maconha no Brasil Contemporâneo: Reflexões, desafios e possibilidades para além da Cannabis Medicinal.Comunicação, História e Cultura Canábica no Brasil. 2023. (Seminário).</t>
+          <t>ERICHSEN, Lucas. Dia Nacional da Abelha. 2023; Tema:
+						Dia Nacional da Abelha. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1778,14 +1712,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>IX Congresso Internacional da ABRAMD - A ética na pluralidade dos saberes e dos fazeres sobre drogas. Cannabis Monitor e Maconhômetro: um projeto de pesquisa e comunicação antiproibicionista. 2023. (Congresso).</t>
+          <t>ERICHSEN, Lucas. Dia Nacional da Ciência e do Pesquisador. 2023; Tema:
+						Dia Nacional da Ciência e do Pesquisador. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1793,91 +1728,93 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>IX Congresso Internacional da ABRAMD - A ética na pluralidade dos saberes e dos fazeres sobre drogas. Contribuições para a Educação sobre drogas: ?Ciência Canábica? para o EJA Ensino Médio. 2023. (Congresso).</t>
+          <t>ERICHSEN, Lucas. O boi assassino e a vida urbana no Rio de Janeiro do século XIX. 2023; Tema:
+						Estudos dos animais. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>XIV RAM - Reunião de Antropologia do Mercosul. A proibição da maconha no Brasil: a emergência da criminalização do pango e da diamba no século XIX. 2023. (Congresso).</t>
+          <t>ERICHSEN, Lucas. Cães sabem quando humanos estão mentindo.. 2021; Tema:
+						Estudos dos animais. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>I Congresso Brasileiro Sobre Psicodélicos: Clínica, Ciência e Política. 2022. (Congresso).</t>
+          <t>ERICHSEN, Lucas. Detectação de anticorpos neutralizantes do SARS-CoV-2. 2021; Tema:
+						Estudos dos animais. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>III Encontro ABRAMD Educação Rio - II Jornada Educação e Drogas do GPED/UERJ.Notícias sobre Maconha: o Podcast como recurso educativo.
-						2022. (Encontro).</t>
+          <t>DUARTE, R. H. ;ERICHSEN, Lucas. As4Estações: Conversa Animal com Rogério Ribeiro de Oliveira. 2021; Tema:
+						Entrevista com o Prof. Dr. Rogério Ribeiro de Oliveira. (Site).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>III Seminário Internacional Cannabis Medicinal: Um Olhar para o FutFuturo. 2022. (Seminário).</t>
+          <t>ERICHSEN, Lucas. Economia da complexidade: atividade econômica e agentes nem sempre são exemplos de racionalidade. 2021. (Site).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>X Encontro de Pesquisa em História da UFMG ? ?Tempo, Memória e Reminiscência: o (re)fazer histórico e suas perspectivas?.O ?DUQUE DA MACONHA? E AS REPRESENTAÇÕES DA CANNABIS NA IMPRENSA: UMA HISTÓRIA DO ESTIGMA SOCIAL DA PLANTA E DE SEUS USOS POLÍTICOS (1950-1955).
-						2022. (Encontro).</t>
+          <t>ERICHSEN, Lucas. Matemática e história como arte. 2021. (Site).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1885,14 +1822,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10º Seminário Interdisciplinar em Sociologia e Direito.O ?Duque da Maconha? e as representações da cannabis na imprensa carioca em contextos políticos entre 1945-1955. 2021. (Seminário).</t>
+          <t>ERICHSEN, Lucas. Monte Everest, a maior montanha do mundo, cresceu 86 centímetros. 2021. (Site).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1900,474 +1837,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8º Congresso Internacional da ABRAMD - Por uma política de drogas democráticas, inclusiva e diversa. Cannabis Monitor e Maconhômetro: ferramentas de pesquisa e ativismo antiproibicionista. 2021. (Congresso).</t>
+          <t>ERICHSEN, Lucas. O desmatamento causa epidemias?. 2021. (Site).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gustavo Junqueira Costa Maia</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2021</v>
       </c>
       <c r="C34" t="inlineStr">
-        <is>
-          <t>I Jornada APCESP de Conhecimento em Cannabis.História e proibição da cannabis no Brasil.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Gustavo Junqueira Costa Maia</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>POLICARPO, F.;MAIA, G.; MOTTA, Y. J. P. . IV Seminário de Pesquisa sobre os Usos Terapêuticos da Maconha. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Gustavo Junqueira Costa Maia</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>MAIA, G.; CARNEIRO, S. ; DIAS, L. L. . As drogas na história: instituições, sujeitos, objetos e usos. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Gustavo Junqueira Costa Maia</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>MAIA, G.; DIAS, L. L. ; CARNEIRO, S. . As drogas na história: instituições, sujeitos, objetos e usos. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Janaína Di Lourenço Esteves</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>DI LOURENÇO, J.. Laboratório História e Natureza - LabHeN/UFRJ. 2021. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Janaína Di Lourenço Esteves</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>DI LOURENÇO, J.. Laboratório História e Natureza - LabHeN/UFRJ. 2021. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>NASCIMENTO, L. G.. História da Historiografia: International Journal of Theory and History of Historiography. 2022. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia Nacional da Onça-Pintada. 2023; Tema:
-						Estudos dos animais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. 'Será que os polvos sonham?'. 2023; Tema:
-						Estudos dos animais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Já pensou na jornada da carne que consumimos e quer dica de leitura?. 2023; Tema:
-						Estudos dos animais; História Ambiental; História da Tecnologia. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Os pombos-correio. 2023; Tema:
-						Estudos dos animais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Filme em Destaque: 'Bibiru: kaikuxi panema'. 2023; Tema:
-						Estudos dos animais - Indicação de filme. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. O iegue e os grupos Arawakan/Aruaque das regiões do Caribe e América do Sul. 2023; Tema:
-						Estudos dos animais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Descubra a curiosa história dos cães nos matadouros!. 2023; Tema:
-						Estudos dos animais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. A transmissão cultural entre primatas não-humanos. 2023; Tema:
-						Estudos dos animais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Hoje temos uma dica de leitura aos interessados em estudos dos animais.. 2023; Tema:
-						Estudos dos animais - Dica de leitura. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas; RATTES, C. L. O. L. . Ibama e a criação de animais silvestres. 2023; Tema:
-						Estudos dos animais, legislação ambiental, animais silvestres. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia do Historiador. 2023; Tema:
-						Dia do Historiador. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia Nacional da Onça-Pintada!. 2023; Tema:
-						Dia Nacional da Onça-Pintada!. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia Nacional da Abelha. 2023; Tema:
-						Dia Nacional da Abelha. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Dia Nacional da Ciência e do Pesquisador. 2023; Tema:
-						Dia Nacional da Ciência e do Pesquisador. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. O boi assassino e a vida urbana no Rio de Janeiro do século XIX. 2023; Tema:
-						Estudos dos animais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Cães sabem quando humanos estão mentindo.. 2021; Tema:
-						Estudos dos animais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Detectação de anticorpos neutralizantes do SARS-CoV-2. 2021; Tema:
-						Estudos dos animais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>DUARTE, R. H. ;ERICHSEN, Lucas. As4Estações: Conversa Animal com Rogério Ribeiro de Oliveira. 2021; Tema:
-						Entrevista com o Prof. Dr. Rogério Ribeiro de Oliveira. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Economia da complexidade: atividade econômica e agentes nem sempre são exemplos de racionalidade. 2021. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Matemática e história como arte. 2021. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Monte Everest, a maior montanha do mundo, cresceu 86 centímetros. 2021. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. O desmatamento causa epidemias?. 2021. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>ERICHSEN, Lucas. Um navio de 400 metros encalhado e a história do canal de Suez. 2021. (Site).</t>
         </is>
@@ -2384,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2507,22 +1990,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ana Clara Nunes Tavares</t>
+          <t>André Francisco Berenger de Araujo</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TAVARES, Ana Clara N.; PINHEIRO, Anna Marina . Simpósio Temático Mundos do trabalho e relações de gênero no Brasil e no exterior: Mulheres, LGBTQIA+ e masculinidades. 2023. (Outro).</t>
+          <t>ARAUJO, A. F. B.. Uso do audiovisual nas escolas de nível fundamental e médio / Festival Arquivo em Cartaz, Arquivo Nacional. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ana Clara Nunes Tavares</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2530,14 +2013,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TAVARES, Ana Clara N.; VERAS, A. ; CUNHA, V. . Simpósio Temático Mundos do trabalho: intersecções entre gênero, raça, classe e memória na História Social. 2023. (Outro).</t>
+          <t>GARRIDO, A. G.. Ditaduras Latino-americanas. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ana Clara Nunes Tavares</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2545,14 +2028,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SILVA, H. ;TAVARES, Ana Clara N.. Simpósio Temático Mundos do trabalho: experiências, conflitos de classe e as questões de raça e racismo nos séculos XIX e XX. 2023. (Outro).</t>
+          <t>CRUZ, A. ;GARRIDO, Ayra Guedes; ALVES, Carolina Gonçalves ; OLIVEIRA, Daniele Chaves Amado de ; CARDOSO, G. ; CARNEIRO, N. ; MARINHO, R. ; BLANK, T. . Memória, História e Patrimônio. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ana Clara Nunes Tavares</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2560,14 +2043,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TAVARES, Ana Clara N.; SALES, Layana ; MARTINS, F. . Simpósio Temático Mundos do trabalho: relações de gênero, associativismos e organização feminina. 2023. (Outro).</t>
+          <t>AMADO, D. ; SPOHR, M. ;GARRIDO, A. G.; BOTELHO, L. ; SALLES, R. . Por que me chamo Getulinho? Uma aventura no arquivo do CPDOC.
+						2023. (Desenvolvimento de material didático ou instrucional - Livro em quadrinhos).</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2575,14 +2059,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;AZEVEDO, F. L. M.;SOARES, B. A.; CHAGAS, K. M. . 20ª Semana Nacional de Museus: O Poder dos Museus. 2022. (Outro).</t>
+          <t>AMADO, D. ;GARRIDO, A. G.. Oficina Uso de Fontes Históricas em Sala de Aula - Arquivos de Mulheres. 2022. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2590,14 +2074,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.; CHAGAS, K. M. ; GOMIDE, A. P. S. . Além dos estereótipos: manifestações artísticas asiáticas e suas influências ao redor do mundo. 2022. (Exposição).</t>
+          <t>GARRIDO, A. G.. Educação Patrimonial em Arquivos. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2605,74 +2089,75 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.; GONCALVES, A. A. O. ;AZEVEDO, F. L. M.;SOARES, B. A.; CHAGAS, K. M. . Hamikái upã hãhãw - Brotar da terra: a luta dos Pataxó pelo território de Gerú Tucunã. 2022. (Exposição).</t>
+          <t>GARRIDO, A. G.. Ditaduras Latino-Americanas. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.;AZEVEDO, F. L. M.; CHAGAS, K. M. . História do Rádio no Brasil e sua presença social em Divinópolis, por meio da coleção de memória de Mayrink Pinto de Aguiar Jr.. 2022. (Exposição).</t>
+          <t>GARRIDO, A. G.. Oficina Online de Uso de Fontes Históricas em Sala de Aula. 2021. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;AZEVEDO, F. L. M.;SOARES, B. A.; CHAGAS, K. M. . As história em quadrinhos como parte relevante na indústria cultural: (re) significando o acervo do prof. Henrique Galvão, suas linguagens e sentidos (1950 a 1970). 2022. (Exposição).</t>
+          <t>AMADO, D. ;GARRIDO, A. G.. Oficina Online de Uso de Fontes Históricas em Sala de Aula para a Escola de Formação de Professores da UERJ. 2021. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.;AZEVEDO, F. L. M.; CHAGAS, K. M. . Numismática e a História: os planos econômicos do Brasil através das moedas e cédulas. 2022. (Exposição).</t>
+          <t>GARRIDO, A. G.. Encontro: Escola no Acervo com Discentes do Programa de Pós-Graduação em História, Política e Bens Culturais (FGV CPDOC). 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Ayra Guedes Garrido</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.;AZEVEDO, F. L. M.; CHAGAS, K. M. . 16ª Primavera dos Museus. 2022. (Outro).</t>
+          <t>SPOHR, M. ; AMADO, D. ;GARRIDO, A. G.; BOTELHO, L. . Escola no Acervo.
+						2021. (Desenvolvimento de material didático ou instrucional - Visitas Virtuais Temáticas guiadas).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Barbara de Almeida Guimarães</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2680,14 +2165,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.;AZEVEDO, F. L. M.; CHAGAS, K. M. . Bionas e a História da Feira Livre do Bairro Esplanada em Divinópolis-MG. 2022. (Exposição).</t>
+          <t>GUIMARÃES, B. A.. Música e cidadania. 2022. (Editoração/Livro).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Barbara de Almeida Guimarães</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2695,77 +2180,76 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;SOARES, B. A.;AZEVEDO, F. L. M.; CHAGAS, K. M. . 6ª Semana Nacional de Arquivos: #SomosArquivos. 2022. (Outro).</t>
+          <t>GUIMARÃES, B. A.. República Brasileira (livro 3). 2022. (Editoração/Livro).</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Barbara de Almeida Guimarães</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.;VERTELO, A. C. O. T.;SOARES, B. A.;AZEVEDO, F. L. M.. 19ª Semana Nacional de Museus: O futuro dos museus: recuperar e reimaginar. 2021. (Outro).</t>
+          <t>GUIMARÃES, B. A.. Relações Políticas (livro 2). 2022. (Editoração/Livro).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.. 13ª Mostra Cinema e Direitos Humanos no CEMUD, UEMG - MG1 - Edição de segunda-feira, 15/04/2024. 2024.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>MANGUEIRA, B.. Mediação da mesa 'Lutas políticas e Movimentos Sociais' - Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023.
+						(Mediação de Mesa Temática).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.; BARROS, J. V . 13ª Mostra Cinema e Direitos Humanos no CEMUD, UEMG - Programa Panorama Geral Divi, com Ana Paula Silva. 2024.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>MANGUEIRA, B.; MARTINS, A. J. . Coordenação do ST 'História da intelectualidade, das representações e das formas artísticas e literárias' - Jornada Manoel Salgado. 2023.
+						(Coordenação de Simpósio Temático).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>André Alcântara Aguiar</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AGUIAR, A. A.; PEREIRA, W. S. ; AMARAL, D. V. O. . Diálogos arquivísticos: narrativa, esquecimento e resgate da memória Divinopolitana. 2021.
-							(Programa de rádio ou TV/Mesa redonda).</t>
+          <t>MANGUEIRA, B.. Arte, História e Memória no século XX. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>André Francisco Berenger de Araujo</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2773,44 +2257,45 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARAUJO, A. F. B.. Uso do audiovisual nas escolas de nível fundamental e médio / Festival Arquivo em Cartaz, Arquivo Nacional. 2021. (Curso de curta duração ministrado/Outra).</t>
+          <t>MANGUEIRA, B.. Arte e Violência Política na América Latina: Uma introdução. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Barbara Mangueira do Nascimento</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GARRIDO, A. G.. Ditaduras Latino-americanas. 2023. (Curso de curta duração ministrado/Outra).</t>
+          <t>MANGUEIRA, B.. Mediação da mesa 'Repressão e Violência Política' - Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, Memória e Diálogos com o Brasil. 2021.
+						(Mediação de Mesa Temática).</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Caroline Rios Costa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CRUZ, A. ;GARRIDO, Ayra Guedes; ALVES, Carolina Gonçalves ; OLIVEIRA, Daniele Chaves Amado de ; CARDOSO, G. ; CARNEIRO, N. ; MARINHO, R. ; BLANK, T. . Memória, História e Patrimônio. 2023. (Curso de curta duração ministrado/Outra).</t>
+          <t>COSTA, C. R.; GOMES, I. S. ; SILVA SOBRINHO, D. F. . A Comissão Nacional da Verdade do Brasil: justiça de transição, memória e a construção do conceito de vítima. 2024. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Caroline Rios Costa</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2818,105 +2303,105 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AMADO, D. ; SPOHR, M. ;GARRIDO, A. G.; BOTELHO, L. ; SALLES, R. . Por que me chamo Getulinho? Uma aventura no arquivo do CPDOC.
-						2023. (Desenvolvimento de material didático ou instrucional - Livro em quadrinhos).</t>
+          <t>COSTA, Caroline R.; GOMES, I. S. ; SILVA SOBRINHO, D. F. . O caso brasileiro: a construção da memória traumática, a justiça de transição face à episódios de extrema direita e a experiência da Comissão Nacional da Verdade. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Celia Daniele Moreira de Souza</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AMADO, D. ;GARRIDO, A. G.. Oficina Uso de Fontes Históricas em Sala de Aula - Arquivos de Mulheres. 2022. (Curso de curta duração ministrado/Extensão).</t>
+          <t>SOUZA, C. D. M.. O Curioso Mundo dos Gênios no Islã. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Celia Daniele Moreira de Souza</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GARRIDO, A. G.. Educação Patrimonial em Arquivos. 2022. (Curso de curta duração ministrado/Outra).</t>
+          <t>SOUZA, C. D. M.. A Sexualidade Feminina em Al-Andalus. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Celia Daniele Moreira de Souza</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GARRIDO, A. G.. Ditaduras Latino-Americanas. 2022. (Curso de curta duração ministrado/Outra).</t>
+          <t>SOUZA, C. D. M.. Jinn - Os gênios no Islã. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Celia Daniele Moreira de Souza</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GARRIDO, A. G.. Oficina Online de Uso de Fontes Históricas em Sala de Aula. 2021. (Curso de curta duração ministrado/Extensão).</t>
+          <t>SOUZA, C. D. M.. O LEGADO CIENTÍFICO DO CALIFADO OMÍADA DE CÓRDOBA (SÉC. X E XI). 2023. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Celia Daniele Moreira de Souza</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AMADO, D. ;GARRIDO, A. G.. Oficina Online de Uso de Fontes Históricas em Sala de Aula para a Escola de Formação de Professores da UERJ. 2021. (Curso de curta duração ministrado/Extensão).</t>
+          <t>SOUZA, C. D. M.. A Ciência do Sexo no Islã Clássico. 2022. .</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Celia Daniele Moreira de Souza</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GARRIDO, A. G.. Encontro: Escola no Acervo com Discentes do Programa de Pós-Graduação em História, Política e Bens Culturais (FGV CPDOC). 2021. (Curso de curta duração ministrado/Outra).</t>
+          <t>SOUZA, C. D. M.. A Formação do Islã.
+						2022. (Desenvolvimento de material didático ou instrucional - Produção de Material Didático para EnsineMe).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Cleudiza Fernandes de Souza</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2924,31 +2409,31 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SPOHR, M. ; AMADO, D. ;GARRIDO, A. G.; BOTELHO, L. . Escola no Acervo.
-						2021. (Desenvolvimento de material didático ou instrucional - Visitas Virtuais Temáticas guiadas).</t>
+          <t>SOUZA, C. F.; MOURA, C. ; MORAIS, A. . Mulheres Negras, Direito e Poder Judiciário. 2021.
+						(Entrevista em episódio de Podcast (POD 15 - Escola Judicial e Coordenadoria de Comunicação Social d).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Cleudiza Fernandes de Souza</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>32º Simpósio Nacional de História.Juízes, Militares e Empresários: a Congruência Ideológica no Superior Tribunal Militar (1964-1988).
-						2023. (Simpósio).</t>
+          <t>SOUZA, C. F.. Agência negra e usos da Justiça no pós-abolição. 2021.
+						(Entrevista em episódio de Podcast (Fronteiras no Tempo)).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2956,15 +2441,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>32º Simpósio Nacional de História ? ANPUH Nacional: Democracia e direitos humanos: Desafios para uma história profissional.Juízes, Militares e Empresários: a Congruência Ideológica no Superior Tribunal Militar (1964-1988).
-						2023. (Simpósio).</t>
+          <t>VENTURA, Elaine. As disputas simbólicas na história de um projeto pioneiro para a construção de uma educação das relações étnico-raciais no Brasil (1947-1983). 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2972,61 +2456,60 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>II Colóquio Estado, Poder e Sociedade ? René Armand Dreifuss e a historiografia sobre o golpe de 1964.Juízes, Militares e Empresários: a Congruência Ideológica no Superior Tribunal Militar (1964-1988).
-						2023. (Simpósio).</t>
+          <t>VENTURA, Elaine. O racismo da cegueira de cor: a democracia racial e seus efeitos (1945-1988). 2023. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>VII Simpósio Arquivos e Educação.Casa Acervo Game App.
-						2023. (Simpósio).</t>
+          <t>VENTURA, Elaine; ASSUNCAO, M. F. M. . 1822/2022: 200 anos de História e Historiografia. 2022.
+						(Simpósio Coordenador).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Elaine Cristina Ventura Ferreira</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VI Semana de História da UFRJ.Justiça de transição: CNV e demais experiências latino-americanas. 2023. (Seminário).</t>
+          <t>VENTURA, Elaine. Fontes, Métodos e abordagens: Um olhar sobre a invenção da religião de matriz africana pelo estudo do acervo de Museus de Folclore. 2021. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Felipe Bernardo da Silva Goebel</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Exposição de acervos: apresentar documentos, fomentar o pensamento. 2022. (Oficina).</t>
+          <t>GOEBEL, Felipe. Moda na perspectiva da História Social: panorama conceitual nos estudos históricos. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Gabriel Felipe Oliveira de Mello</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3034,90 +2517,91 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Justiça Militar em questão.Justiça Militar em questão. 2022. (Outra).</t>
+          <t>MELLO, G. F. O.. Formação sociopolítica, sindical e organizativa dos Estivadores e Portuários do Rio de Janeiro,. 2022. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Gabriel Pereira de Oliveira</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Seminário Internacional de Arquivos Pessoais: debates contemporâneos.A experiência do Escola no Acervo e os desafios da difusão e da educação patrimonial da FGV CPDOC em tempos pandêmicos. 2022. (Seminário).</t>
+          <t>OLIVEIRA, G. P.; OLIVEIRA, A. J. de ; KETTLE, W. O. . História ambiental e os dilatados sertões do norte nos séculos XVIII E XIX.. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Seminário Internacional de Arquivos Pessoais: debates contemporâneos. 2022. (Seminário).</t>
+          <t>CANDIDA VARGAS FREDERICO, MARIA ; ALMEIDA, B. C. ;RIBEIRO, Guilherme L.. Dossiê 10 anos das Jornadas de Junho: as múltiplas dimensões e desafios da revolta social - Parte II. 2023.
+						(Apresentação de dossiê).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Guilherme Leite Ribeiro</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VI Simpósio Arquivos &amp; Educação Arquivos, Educação e Movimentos Sociais: acervos, memórias e vozes plurais.EDUCAÇÃO PATRIMONIAL DURANTE A PANDEMIA: A ESCOLA NO ACERVO.
-						2022. (Simpósio).</t>
+          <t>CANDIDA VARGAS FREDERICO, MARIA ;RIBEIRO, Guilherme Leite.; ALMEIDA, B. C. . Dossiê 10 anos das Jornadas de Junho: as múltiplas dimensões e desafios da revolta social - Parte I. 2023.
+						(Apresentação de dossiê).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Isabelle Cristina da Silva Pires</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>X Jornada Discente do Programa de Pós-Graduação em História, Política e Bens Culturais (PPHPBC).Militares e Justiça: as disputas políticas de militares no Superior Tribunal Militar (1964-1979). 2022. (Seminário).</t>
+          <t>PIRES, I. C. S.; GAMA, Mylena Porto da ; FARIAS, M.S. ; SANTOS, L.H.S. ; CARVALHO, Eric Fagundes de . Revista Ars Historica - Dossiê Diálogos em História Ambiental. 2023. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Isabelle Cristina da Silva Pires</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2º Seminário Museu e Educação: educação museal e decolonialidade. 2021. (Seminário).</t>
+          <t>PIRES, ISABELLE; CARVALHO, Eric Fagundes de ; GAMA, Mylena Porto da . Revista Ars Historica - Debates sobre História Moderna e as América Coloniais: os 20 anos do Antigo Regime dos Trópicos em Perspectiva. 2022. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Isabelle Cristina da Silva Pires</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3125,76 +2609,74 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3.º Encontro Memória para Todos: Preservar e Partilhar a Memória.Projeto Difusão e Educação Patrimonial do acervo histórico da FGV CPDOC.
-						2021. (Encontro).</t>
+          <t>SANTOS, L.H.S. ;PIRES, I. C. S.; PINHEIRO, I. S. ; FARIAS, M.S. ; CARVALHO, Eric Fagundes de . Revista Ars Historica - Dossiê Regimes autoritários e totalitários em perspectiva histórica, séculos XIX, XX e XXI. 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31º Simpósio Nacional de História.Militares e Justiça: as disputas da caserna no Superior Tribunal Militar (1964-1979).
-						2021. (Simpósio).</t>
+          <t>DI LOURENÇO, J.. Introdução à História Ambiental. 2024. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Janaína Di Lourenço Esteves</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>I Colóquio Internacional Estado, Poder e Sociedade. 2021. (Outra).</t>
+          <t>DI LOURENÇO, J.. Introdução à leitura e escrita acadêmica. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ayra Guedes Garrido</t>
+          <t>Jefferson dos Santos Alves</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SPOHR, M. ; LEMOS, R. ; BORTONE, E. ; GIL, V. ;GARRIDO, A. G.. II Colóquio Estado, Poder e Sociedade ? René Armand Dreifuss e a historiografia sobre o golpe de 1964. 2023. (Congresso).</t>
+          <t>ALVES, J. S.. O centenário do Centro Dom Vital (1922-2022). A Ordem, v. 102. 2022. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Barbara de Almeida Guimarães</t>
+          <t>Jefferson dos Santos Alves</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GUIMARÃES, B. A.. Música e cidadania. 2022. (Editoração/Livro).</t>
+          <t>ALVES, J. S.. O centenário da revista A Ordem (1921-2021). A Ordem, v. 101. 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Barbara de Almeida Guimarães</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3202,29 +2684,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GUIMARÃES, B. A.. República Brasileira (livro 3). 2022. (Editoração/Livro).</t>
+          <t>VALE CASTRO, FERNANDO LUIZ ; SEIXLACK, ALESSANDRA GONZALEZ DE CARVALHO ;DA SILVA, LAYS CORRÊA. Novos paradigmas de desenvolvimento para a América Latina: (re)emergência étnica e resistência indígena no Tempo Presente. 2022.
+						(Dossiê).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Barbara de Almeida Guimarães</t>
+          <t>Lays Correa da Silva</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GUIMARÃES, B. A.. Relações Políticas (livro 2). 2022. (Editoração/Livro).</t>
+          <t>CORREA, L.. Justiça de Transição e Comissões da Verdade na América do Sul,. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Barbara de Almeida Guimarães</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3232,168 +2715,168 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GUIMARÃES, B. A.; VILLELA, L. ; ANAISSI, V. P. . Engrenages do mundo - Modelos políticos e econômicos. 1. ed. Rio de Janeiro: Editora Eleva S/A, 2021. 536p .</t>
+          <t>SANTOS, A. V. A. dos ;NASCIMENTO, L. G.. Escritas na maquinação do tempo: 2021 e o que ficou em nós.. 2022. (Editoração/Anais).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Barbara de Almeida Guimarães</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GUIMARÃES, B. A.; Lys Villela ; ANAISSI, V. P. . Itinerários Formativos - Livro 1 - Relações Políticas. 1. ed. Rio de Janeiro: Editora Eleva S/A, 2021. 184p .</t>
+          <t>SANTOS, A. V. A. dos ;NASCIMENTO, L. G.. Escritas na maquinação do tempo: 2021 e o que ficou em nós.. 2022. (Editoração/Anais).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MANGUEIRA, B.. Mediação da mesa 'Lutas políticas e Movimentos Sociais' - Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023.
-						(Mediação de Mesa Temática).</t>
+          <t>DAHER, A. V. ; GUSMÃO, H. B. de ;NASCIMENTO, L. G.; BARBOSA, M. . Jornada de Estudos: o ?efeito de escândalo? na literatura e nas artes brasileiras. 2022.
+						(Organização).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MANGUEIRA, B.; MARTINS, A. J. . Coordenação do ST 'História da intelectualidade, das representações e das formas artísticas e literárias' - Jornada Manoel Salgado. 2023.
-						(Coordenação de Simpósio Temático).</t>
+          <t>VARELLA, F. F. ;NASCIMENTO, L. G.. História da Historiografia: International Journal of Theory and History of Historiography. 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Letícia Gomes do Nascimento</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MANGUEIRA, B.. Arte, História e Memória no século XX. 2022. (Curso de curta duração ministrado/Outra).</t>
+          <t>NASCIMENTO, L. G.; PINHEIRO, I. S. . História e linguagem poética. 2021.
+						(Coordenação de simpósio temático).</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MANGUEIRA, B.. Arte e Violência Política na América Latina: Uma introdução. 2021. (Curso de curta duração ministrado/Outra).</t>
+          <t>LEITE, LUCA. ?Generosidade da Terra, Ingratidão dos Homens?: Conservação da Natureza no Brasil Império. 2022. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Barbara Mangueira do Nascimento</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MANGUEIRA, B.. Mediação da mesa 'Repressão e Violência Política' - Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, Memória e Diálogos com o Brasil. 2021.
-						(Mediação de Mesa Temática).</t>
+          <t>ERICHSEN, Lucas. Descrição no Youtube para documentário publicado no canal oficial do INMA. 2023.
+						(Audiovisual).</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Lucas Vinicius Erichsen da Rocha</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; GOMES, I. S. ; SILVA SOBRINHO, D. F. . A Comissão Nacional da Verdade do Brasil: justiça de transição, memória e a construção do conceito de vítima. 2024. (Curso de curta duração ministrado/Outra).</t>
+          <t>ERICHSEN, Lucas. História das Ciências e da Conversação da Mata Atlântica. 2022.
+						(Vídeo de curta duração).</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Luiza Nascimento de Oliveira da Silva</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>COSTA, Caroline R.; GOMES, I. S. ; SILVA SOBRINHO, D. F. . O caso brasileiro: a construção da memória traumática, a justiça de transição face à episódios de extrema direita e a experiência da Comissão Nacional da Verdade. 2023. (Curso de curta duração ministrado/Outra).</t>
+          <t>NASCIMENTO DE OLIVEIRA DA SILVA, LUIZA. História e Imagens. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Luiza Nascimento de Oliveira da Silva</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>I Simpósio dos Estudantes do PPHPBC.
-						2024. (Simpósio).</t>
+          <t>SILVA, L. N. O.. Tratados de arquitetura militar e de artilharia: circulação de livros manuscritos e impressos no âmbito das Academias militares do Reino e do Ultramar português (1700-1822). 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Luiza Nascimento de Oliveira da Silva</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>X Oficina Novos olhares sobre o arquivo: visualidade, difusão e educação nos arquivos de mulheres do CPDOC. 2024. (Oficina).</t>
+          <t>NASCIMENTO DE OLIVEIRA DA SILVA, LUIZA. A formação política e jurisdicional do território: A criação de comarcas, vilas, cidades e fortalezas no ultramar português (séculos XVI-XVIII). 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Maria Beatriz Gomes Bellens Porto</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3401,45 +2884,45 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cartografias das Culturas: Encontro Latino mericano de Memórias, Territórios e Identidades.
-						2023. (Encontro).</t>
+          <t>GOMES BELLENS PORTO, MARIA BEATRIZ; GROH, T. . Da Colônia ao Império: estudos sobre a História do Brasil. 2023. (Editoração/Coletânea).</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; CAMPANHOLO, B. G. ; MANGUEIRA, B. ; CORREA, L. ; ARAUJO, M. P. N. . Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Congresso).</t>
+          <t>MORETTI, M. T.. Porque as ideias têm história: debates sobre História Intelectual. 2021. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Matheus Teixeira Moretti</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; SOARES, S. F. . Ditadura nunca mais! Mulheres e resistências contra a ditadura militar no Brasil. 2022. (Outro).</t>
+          <t>MORETTI, M. T.; BARBOSA JUNIOR, C. W. L. . Renascimento e Reformas Religiosas.
+						2021. (Desenvolvimento de material didático ou instrucional - Videoaula).</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Moisés Corrêa Fonseca da Silva</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3447,29 +2930,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; COUTINHO, A. B. P. S. ; QUINTINO, M. R. ; SOARES, S. F. . Entre escutas e escritas: diálogos entre a história oral e os estudos de gênero. 2022. (Outro).</t>
+          <t>SILVA, M. C. F.. História da África: Uma Introdução. 2022. .</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Murillo Dias Winter</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>COSTA, C. R.; ARAUJO, M. P. N. ; SILVA, Izabel Priscila Pimentel da ; CORREA, L. ; CAMPANHOLO, B. G. ; GOMES, I. S. ; MANGUEIRA, B. . Seminário Internacional 45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil. 2021. (Congresso).</t>
+          <t>WINTER, Murillo Dias.. Guerra de Palavras.Como estudar a imprensa da independência do Brasil: historiografia, fontes e métodos. 2022. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Caroline Rios Costa</t>
+          <t>Mylena Pereira da Silva</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3477,29 +2960,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>COSTA, Caroline R.. Reflexões sobre infância e subjetividade na Ditadura militar brasileira. 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>SILVA, M. P.. RELATÓRIO DE ATIVIDADES DO PÓS-GRADUANDO. 2023. (Relatório de pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Celia Daniele Moreira de Souza</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SOUZA, C. D. M.. O Curioso Mundo dos Gênios no Islã. 2023. (Curso de curta duração ministrado/Outra).</t>
+          <t>BARBOSA, N. A.; Letícia Andrade Batista Silva . Minicurso - História Ambiental e Antropoceno: reflexões sobre um novo mundo. 2024. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Celia Daniele Moreira de Souza</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3507,14 +2990,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SOUZA, C. D. M.. A Sexualidade Feminina em Al-Andalus. 2023. (Curso de curta duração ministrado/Outra).</t>
+          <t>SILVA, Amanda Guimarães ; ARAUJO, B. A. ; SALES, G. P. S. ; COSTA, H. M. C. R ; LEITE, Luca Araujo de Oliveira ; FARIAS, Millena Souza ;BARBOSA, N. A.. Caderno de resumos IV Encontro Virtual de grupos de pesquisa e laboratórios de História Ambiental Ambiental do Brasil. 2023.
+						(Organizadora).</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Celia Daniele Moreira de Souza</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3522,29 +3006,31 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SOUZA, C. D. M.. Jinn - Os gênios no Islã. 2023. (Curso de curta duração ministrado/Outra).</t>
+          <t>BARBOSA, N. A.. Rio 92: O Futuro do Mundo no Fórum Global. 2023.
+						(Pesquisa de jornais e docuementos).</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Celia Daniele Moreira de Souza</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SOUZA, C. D. M.. O LEGADO CIENTÍFICO DO CALIFADO OMÍADA DE CÓRDOBA (SÉC. X E XI). 2023. (Curso de curta duração ministrado/Extensão).</t>
+          <t>BRUM, M. S. I. ;BARBOSA, N. A.. Projeto Memórias do ITERJ com tratamento do projeto História e Memórias das lutas pelo direito à terra no Estado do Rio de Janeiro. 2022.
+						(Transcrição de entrevista realizada pelo Projeto Memórias ITERJ).</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Celia Daniele Moreira de Souza</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3552,14 +3038,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SOUZA, C. D. M.. A Ciência do Sexo no Islã Clássico. 2022. .</t>
+          <t>BARBOSA, N. A.; COSTA, H. M. C. R ; ARAUJO, B. A. . HISTORIA E NATUREZA: DIÁLOGOS POSSÍVEIS ENTRE SOCIEDADE, AMBIENTE E CULTURA. 2022.
+						(Coordenadora de Simpósio Temático).</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Celia Daniele Moreira de Souza</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3567,15 +3054,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SOUZA, C. D. M.. A Formação do Islã.
-						2022. (Desenvolvimento de material didático ou instrucional - Produção de Material Didático para EnsineMe).</t>
+          <t>BARBOSA, N. A.; ARAUJO, B. A. ; SALES, G. P. S. ; COSTA, H. M. C. R ; MOREIRA, P. F. ; FARIAS, Millena Souza ; LEITE, Luca Araujo de Oliveira ; SILVA, Amanda Guimarães . Caderno de resumos III Encontro Virtual de grupos de pesquisa e laboratórios de História Ambiental Ambiental do Brasil. 2022.
+						(Organizadora).</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cleudiza Fernandes de Souza</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3583,15 +3070,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SOUZA, C. F.; MOURA, C. ; MORAIS, A. . Mulheres Negras, Direito e Poder Judiciário. 2021.
-						(Entrevista em episódio de Podcast (POD 15 - Escola Judicial e Coordenadoria de Comunicação Social d).</t>
+          <t>BARBOSA, N. A.; COSTA, H. M. C. R ; ARAUJO, B. A. . Minicurso -  Novas possibilidades de análise através da História Ambienatal: olhar sobre as relações entre humanos e não-humanos. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cleudiza Fernandes de Souza</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3599,61 +3085,63 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SOUZA, C. F.. Agência negra e usos da Justiça no pós-abolição. 2021.
-						(Entrevista em episódio de Podcast (Fronteiras no Tempo)).</t>
+          <t>BARBOSA, N. A.; COSTA, H. M. C. R . História Ambiental: a natureza em diálogos interdisciplinares. 2021.
+						(Coordenadora de Simpósio Temático).</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Daniel Dutra Coelho Braga</t>
+          <t>Natasha Augusto Barbosa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BRAGA, Daniel Dutra Coelho. Tollenare, Louis-François de. In: Cecília Helena de Salles Oliveira; João Paulo Pimenta. (Org.). Dicionário da Independência do Brasil: História, Memória e Historiografia. 1ed.São Paulo: EdUSP/Publicações BBM, 2022, v. , p. 963-964.</t>
+          <t>BARBOSA, N. A.; ARAUJO, B. A. ; SALES, G. P. S. ; COSTA, H. M. C. R ; MOREIRA, P. F. . Caderno de resumos II Encontro Virtual de grupos de pesquisa e laboratórios de História Ambiental Ambiental do Brasil. 2021.
+						(Organizadora).</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Daniel Dutra Coelho Braga</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BRAGA, Daniel Dutra Coelho. Roussin, Albin-Reine. In: Cecília Helena de Salles Oliveira; João Paulo Pimenta. (Org.). Dicionário da Independência do Brasil: História, Memória e Historiografia. 1ed.São Paulo: EdUSP/Publicações BBM, 2022, v. 1, p. 864-865.</t>
+          <t>MONTEIRO, R.. Sintomas visuais do luto: a filosofia da imagem de Georges Didi-Huberman na análise da obra de Käthe Kollwitz (1914 1945). 2023.
+						(Palestra).</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Denise da Silva de Oliveira</t>
+          <t>Renata Dias Pinto Monteiro</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>OLIVEIRA, D. S.. A tecnologia entre o passado e o presente. 2024.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>MONTEIRO, R.. O Modernismo e os 100 anos da Semana de Arte Moderna. 2022.
+						(Podcast).</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Rodrigo Franco da Costa</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3661,45 +3149,44 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>VENTURA, Elaine. As disputas simbólicas na história de um projeto pioneiro para a construção de uma educação das relações étnico-raciais no Brasil (1947-1983). 2023. (Curso de curta duração ministrado/Outra).</t>
+          <t>COSTA, Rodrigo Franco da.. ?A HISTORIOGRAFIA E A PENÍNSULA IBÉRICA - TENDÊNCIAS HISTORIOGRÁFICAS PARA UMA HISTÓRIA DAS MULTIDÕES?. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Rodrigo Franco da Costa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>VENTURA, Elaine. O racismo da cegueira de cor: a democracia racial e seus efeitos (1945-1988). 2023. (Curso de curta duração ministrado/Extensão).</t>
+          <t>COSTA, Rodrigo Franco da.. Os repúblicos e a Restauração de Portugal de 1640: agências sociais, cultura política e circulação de ideias. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Tiago Gomes da Silva</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>VENTURA, Elaine; ASSUNCAO, M. F. M. . 1822/2022: 200 anos de História e Historiografia. 2022.
-						(Simpósio Coordenador).</t>
+          <t>SILVA, T. G.; SANTOS, C. V. S . Dossiê Cinema e Sociedade: perspectivas e abordagens. 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Elaine Cristina Ventura Ferreira</t>
+          <t>Vanderlei Marinho Costa</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3707,89 +3194,90 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>VENTURA, Elaine. Fontes, Métodos e abordagens: Um olhar sobre a invenção da religião de matriz africana pelo estudo do acervo de Museus de Folclore. 2021. (Curso de curta duração ministrado/Extensão).</t>
+          <t>COSTA, Vanderlei Marinho. Estudando tópicos de história do século XX através da história das HQs. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GOEBEL, Felipe. Moda na perspectiva da História Social: panorama conceitual nos estudos históricos. 2021. (Curso de curta duração ministrado/Outra).</t>
+          <t>MENDONÇA, Vanessa de. Introdução ao Grego Antigo II. 2023. .</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>18o Colóquio de Moda - ABEPEM. Conflitos de moda e conflitos sobre a moda na Paris das décadas de 1770 e 1780. 2023. (Congresso).</t>
+          <t>MENDONÇA, Vanessa de. Introdução ao Grego Antigo. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Encontro Interno do Núcleo de Estudos em História da Moda e Indumentária (NEHMI - UERJ).Os conflitos de sexo e gênero no campo da moda parisiense (1770-1790). 2023. (Seminário).</t>
+          <t>GAIA, D. V. ; PAREDES, Gabriel ;MENDONÇA, Vanessa de. SENSÍVEL E O INVISÍVEL: RELIGIÕES, CRENÇAS E RITUAIS NOS MUNDOS ANTIGOS. 2022. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X Encontro de Pesquisa em História - UFMG. O sexo e o gênero do campo da moda em Paris: as marchandes de modes e seu apagamento. 2022. (Congresso).</t>
+          <t>MENDONÇA, Vanessa de. Um estudo sobre grafites: entre Língua, História e Sociedade. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Vicente Gil da Silva</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ciclo de Debates Grupo de pesquisa História Intelectual: narrativas, práticas e circulação de ideias.Gênero, sexo e moda como categorias analíticas da ação social feminina na Paris da década de 1780. 2021. (Seminário).</t>
+          <t>Vicente Gil da Silva. Parecerista na avaliação de proposta de livro (Instituto Federal de Santa Catarina - IFC). 2023.
+						(Parecerista ad hoc).</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Vicente Gil da Silva</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3797,2112 +3285,24 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>I Encontro dos GTs do Colóquio de Moda da ABEPEM.À l'Orient: fantasia e idealização oriental na Paris de 1780. 2021. (Seminário).</t>
+          <t>Vicente Gil da Silva. Parecerista ad hoc da revista Monções (UFGD). 2021.
+						(Parecerista ad hoc).</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
+          <t>Vicente Gil da Silva</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>2021</v>
       </c>
       <c r="C93" t="inlineStr">
-        <is>
-          <t>III Encontro de Pesquisa em Teoria da História e História da Historiografia.Rumores em Paris na Marcha das Mulheres sobre Versalhes: narrativas e factualidades. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>II Seminário Mulheres e a Escrita da História.- Mulheres trabalhadoras no eclodir da Revolução Francesa: questionamentos das noções de esfera pública e esfera privada. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>XV Semana de História Política. Comerciantes de modas: as representações das marchandes de modes parisienses, 1776-1780. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>GOEBEL, Felipe. I Encontro Núcleo de Estudos em História da Moda e Indumentária (NEHMI - UERJ). 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Felipe Bernardo da Silva Goebel</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>GOEBEL, Felipe; EPAMINONDAS, N. R. ; RODRIGUES JUNIOR, P. O. . ST Moda, aparências e conflitos de gênero: disputas de história generificada. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Gabriel Felipe Oliveira de Mello</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>MELLO, G. F. O.. Formação sociopolítica, sindical e organizativa dos Estivadores e Portuários do Rio de Janeiro,. 2022. (Curso de curta duração ministrado/Extensão).</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Gabriel Pereira de Oliveira</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, G. P.; OLIVEIRA, A. J. de ; KETTLE, W. O. . História ambiental e os dilatados sertões do norte nos séculos XVIII E XIX.. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>CANDIDA VARGAS FREDERICO, MARIA ; ALMEIDA, B. C. ;RIBEIRO, Guilherme L.. Dossiê 10 anos das Jornadas de Junho: as múltiplas dimensões e desafios da revolta social - Parte II. 2023.
-						(Apresentação de dossiê).</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>CANDIDA VARGAS FREDERICO, MARIA ;RIBEIRO, Guilherme Leite.; ALMEIDA, B. C. . Dossiê 10 anos das Jornadas de Junho: as múltiplas dimensões e desafios da revolta social - Parte I. 2023.
-						(Apresentação de dossiê).</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>13ª Semana de Ciências Sociais da PUC-Rio. GT Movimentos sociais e lutas por direitos e cidadania. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Mobilizações Sociais e Democracia: Sentidos e Desafios desde Junho de 2013.Mobilizações Sociais e Democracia: Sentidos e Desafios desde Junho de 2013. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>RIBEIRO, Guilherme L.; FREDERICO, M. C. V. ; ALMEIDA, B. C. . 13ª Semana de Ciências Sociais da PUC-Rio. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>ALMEIDA, B. C. ;RIBEIRO, Guilherme Leite.; FREDERICO, M. C. V. . Mobilizações Sociais e Democracia: Sentidos e Desafios desde Junho de 2013. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>RIBEIRO, Guilherme L.; ZULINI, J. . ST 20. Partidos políticos nacionais: um século de história no Brasil. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>RIBEIRO, Guilherme Leite.. Frentes Parlamentares. 2023.
-							(Programa de rádio ou TV/Entrevista).</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>RIBEIRO, Guilherme L.. O discurso anticomunista e a Ação Democrática Parlamentar nos anos 1960. 2023; Tema:
-						O discurso anticomunista e a Ação Democrática Parlamentar nos anos 1960. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>RIBEIRO, Guilherme L.. 'Os anos JK' e 'Jango': o olhar cinematográfico de Silvio Tendler para o Brasil. 2023; Tema:
-						"Os anos JK" e "Jango": o olhar cinematográfico de Silvio Tendler para o Brasil. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Guilherme Leite Ribeiro</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>RIBEIRO, Guilherme L.. O que são frentes parlamentares?. 2022; Tema:
-						Frentes parlamentares. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Ingrid Gomes Ferreira</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>15º Encontro Regional Sudeste de História Oral: Memória Corpo Mundo.Ação comunitária no combate à COVID-19 na favela da Rocinha: história oral como metodologia de pesquisa.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Ingrid Gomes Ferreira</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>20º Encontro de História da ANPUH-Rio. "1822/2022: 200 anos de História e Historiografia".Movimentos sociais e o território urbano: a luta anti-remocionista da Vila Autódromo.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Ingrid Gomes Ferreira</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis.Vozes da resistência: história oral como metodologia para o estudo de um movimento social urbano.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Isabelle Cristina da Silva Pires</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>PIRES, I. C. S.; GAMA, Mylena Porto da ; FARIAS, M.S. ; SANTOS, L.H.S. ; CARVALHO, Eric Fagundes de . Revista Ars Historica - Dossiê Diálogos em História Ambiental. 2023. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Isabelle Cristina da Silva Pires</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>PIRES, ISABELLE; CARVALHO, Eric Fagundes de ; GAMA, Mylena Porto da . Revista Ars Historica - Debates sobre História Moderna e as América Coloniais: os 20 anos do Antigo Regime dos Trópicos em Perspectiva. 2022. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Isabelle Cristina da Silva Pires</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>SANTOS, L.H.S. ;PIRES, I. C. S.; PINHEIRO, I. S. ; FARIAS, M.S. ; CARVALHO, Eric Fagundes de . Revista Ars Historica - Dossiê Regimes autoritários e totalitários em perspectiva histórica, séculos XIX, XX e XXI. 2021. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Janaína Di Lourenço Esteves</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>DI LOURENÇO, J.. Introdução à História Ambiental. 2024. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Janaína Di Lourenço Esteves</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>DI LOURENÇO, J.. Introdução à leitura e escrita acadêmica. 2023. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Jefferson dos Santos Alves</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>ALVES, J. S.. O centenário do Centro Dom Vital (1922-2022). A Ordem, v. 102. 2022. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Jefferson dos Santos Alves</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>ALVES, J. S.. O centenário da revista A Ordem (1921-2021). A Ordem, v. 101. 2021. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Jefferson dos Santos Alves</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>I Jornada de Egressos Professor Manolo Florentino (PPGHIS/UFRJ).O papel político da prática científica jesuítica em Portugal: uma análise a partir da supressão (1759).
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Jefferson dos Santos Alves</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>ALVES, J. S.. Ciclo de conferências Centenário da Revista A Ordem. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Jerônimo Aguiar Duarte da Cruz</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>ALVARENGA, F. M. ;CRUZ, Jerônimo Aguiar Duarte da. Simpósio Temático História agrária, história da propriedade e o rural em perspectiva: temporalidades, atores e lutas (séculos XVIII-XXI). 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>VALE CASTRO, FERNANDO LUIZ ; SEIXLACK, ALESSANDRA GONZALEZ DE CARVALHO ;DA SILVA, LAYS CORRÊA. Novos paradigmas de desenvolvimento para a América Latina: (re)emergência étnica e resistência indígena no Tempo Presente. 2022.
-						(Dossiê).</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Lays Correa da Silva</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>CORREA, L.. Justiça de Transição e Comissões da Verdade na América do Sul,. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>SANTOS, A. V. A. dos ;NASCIMENTO, L. G.. Escritas na maquinação do tempo: 2021 e o que ficou em nós.. 2022. (Editoração/Anais).</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>SANTOS, A. V. A. dos ;NASCIMENTO, L. G.. Escritas na maquinação do tempo: 2021 e o que ficou em nós.. 2022. (Editoração/Anais).</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>DAHER, A. V. ; GUSMÃO, H. B. de ;NASCIMENTO, L. G.; BARBOSA, M. . Jornada de Estudos: o ?efeito de escândalo? na literatura e nas artes brasileiras. 2022.
-						(Organização).</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>VARELLA, F. F. ;NASCIMENTO, L. G.. História da Historiografia: International Journal of Theory and History of Historiography. 2021. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Letícia Gomes do Nascimento</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>NASCIMENTO, L. G.; PINHEIRO, I. S. . História e linguagem poética. 2021.
-						(Coordenação de simpósio temático).</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Luca Araujo de Oliveira Leite</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>LEITE, LUCA. ?Generosidade da Terra, Ingratidão dos Homens?: Conservação da Natureza no Brasil Império. 2022. (Curso de curta duração ministrado/Extensão).</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Luca Araujo de Oliveira Leite</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>II Seminário de Integração.Tihimore das Mulheres Paresi-Haliti. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Luca Araujo de Oliveira Leite</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>II Simpósio Fluminense de Zoologia.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Luca Araujo de Oliveira Leite</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Simpósio Ecologia Histórica e História Ambiental: diálogos possíveis e perspectivas futuras.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Luca Araujo de Oliveira Leite</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>VIII Encuentro Latinoamericano de Recreación y Ocio.ETNOESPORTE E GÊNERO ENTRE OS PARESI-HALITI.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Luca Araujo de Oliveira Leite</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>LEITE, LUCA; SILVA, A. G. ; SALES, G. P. ; BARBOSA, N. A. ; COSTA, H. M. C. R. ; MOREIRA, P. F. ; ARAUJO, B. A. ; FARIAS, M. S. . III Encontro Virtual de Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. Descrição no Youtube para documentário publicado no canal oficial do INMA. 2023.
-						(Audiovisual).</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Lucas Vinicius Erichsen da Rocha</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>ERICHSEN, Lucas. História das Ciências e da Conversação da Mata Atlântica. 2022.
-						(Vídeo de curta duração).</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>NASCIMENTO DE OLIVEIRA DA SILVA, LUIZA. História e Imagens. 2022. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>SILVA, L. N. O.. Tratados de arquitetura militar e de artilharia: circulação de livros manuscritos e impressos no âmbito das Academias militares do Reino e do Ultramar português (1700-1822). 2022. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Luiza Nascimento de Oliveira da Silva</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>NASCIMENTO DE OLIVEIRA DA SILVA, LUIZA. A formação política e jurisdicional do território: A criação de comarcas, vilas, cidades e fortalezas no ultramar português (séculos XVI-XVIII). 2022. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Maria Beatriz Gomes Bellens Porto</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>GOMES BELLENS PORTO, MARIA BEATRIZ; GROH, T. . Da Colônia ao Império: estudos sobre a História do Brasil. 2023. (Editoração/Coletânea).</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Matheus Teixeira Moretti</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>MORETTI, M. T.. Porque as ideias têm história: debates sobre História Intelectual. 2021. (Curso de curta duração ministrado/Extensão).</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Matheus Teixeira Moretti</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>MORETTI, M. T.; BARBOSA JUNIOR, C. W. L. . Renascimento e Reformas Religiosas.
-						2021. (Desenvolvimento de material didático ou instrucional - Videoaula).</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Matheus Teixeira Moretti</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Encontro de Pesquisa em História (EPHIS).Governar o céu, governar a terra: apropriações brunianas para a concepção de stasis.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Matheus Teixeira Moretti</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Passados em transe: Meta-história e o Brasil 50 anos depois. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Matheus Teixeira Moretti</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Congresso do Laboratório de Estudos Republicanos. "A cidade diante do tempo: notas de pesquisa em torno da experiência do tempo na História do Povo Florentino. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Matheus Teixeira Moretti</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Dante Alighieri: Obra Literária, Pensamento e Época, Prof. Dr. Carlos Berriel (UNICAMP). 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Matheus Teixeira Moretti</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>O problema do tempo na filosofia de Paul Ricoeur. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Matheus Teixeira Moretti</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>V Colóquio Auores do Renascimento: historiografia e historia da arte."O medo passou a ser universal e pervasivo e o sentimento da cidade mudou de paz e felicidade para alarme e ansiedade?: a cidade e o tempo na História do Povo Florentino de Leonardo Bruni. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Matheus Teixeira Moretti</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>V Colóquio Autores do Renascimento. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Matheus Teixeira Moretti</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>31º Simpósio Nacional de História - ST 080 - História Moderna: concepções, temas e perspectivas para o ensino e a pesquisa.O tempo e a política nas Historiae de Leonardo Bruni.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Moisés Corrêa Fonseca da Silva</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>SILVA, M. C. F.. História da África: Uma Introdução. 2022. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Murillo Dias Winter</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>WINTER, Murillo Dias.. Guerra de Palavras.Como estudar a imprensa da independência do Brasil: historiografia, fontes e métodos. 2022. (Curso de curta duração ministrado/Extensão).</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>SILVA, M. P.. RELATÓRIO DE ATIVIDADES DO PÓS-GRADUANDO. 2023. (Relatório de pesquisa).</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Percepções Imperiais e Circulação no Mundo Atlântico Português.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Webinário do Instituto de História da Universidade Federal Fulminense: As experiências coloniais portuguesa e espanhola. Comparações, denúncias e apologia ao longo dos séculos XVI e XVII. 2024. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Em Defesa das Mulheres no Renascimento: Valla, Fonte e Tarabotti. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>História em  Estudos Culturais - III  Diálogos sobre História - Ciclo de Minicursos Online da UFPR. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Para além dos ossos: escavações arqueológicas no Bairro do Recife. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>VI Colóquio NEJAP - A Espada e a Pena: Guerra e Cultura Marcial no Japão. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>De escravo a senhor: trajetórias (séculos XVII-XIX). 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>I Colóquio de Filologia e História: documentação histórica e narrativas de violência e de resistência nos séculos XVIII e XIX. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>OLHARES CONTEMPORÂNEOS SOBRE O ORIENTE MÉDIO.OLHARES CONTEMPORÂNEOS SOBRE O ORIENTE MÉDIO. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Mylena Pereira da Silva</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>SILVA, M. P.. Seminário Discente da Pós-Graduação em História Moderna. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; Letícia Andrade Batista Silva . Minicurso - História Ambiental e Antropoceno: reflexões sobre um novo mundo. 2024. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>SILVA, Amanda Guimarães ; ARAUJO, B. A. ; SALES, G. P. S. ; COSTA, H. M. C. R ; LEITE, Luca Araujo de Oliveira ; FARIAS, Millena Souza ;BARBOSA, N. A.. Caderno de resumos IV Encontro Virtual de grupos de pesquisa e laboratórios de História Ambiental Ambiental do Brasil. 2023.
-						(Organizadora).</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.. Rio 92: O Futuro do Mundo no Fórum Global. 2023.
-						(Pesquisa de jornais e docuementos).</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>BRUM, M. S. I. ;BARBOSA, N. A.. Projeto Memórias do ITERJ com tratamento do projeto História e Memórias das lutas pelo direito à terra no Estado do Rio de Janeiro. 2022.
-						(Transcrição de entrevista realizada pelo Projeto Memórias ITERJ).</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; COSTA, H. M. C. R ; ARAUJO, B. A. . HISTORIA E NATUREZA: DIÁLOGOS POSSÍVEIS ENTRE SOCIEDADE, AMBIENTE E CULTURA. 2022.
-						(Coordenadora de Simpósio Temático).</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; SALES, G. P. S. ; COSTA, H. M. C. R ; MOREIRA, P. F. ; FARIAS, Millena Souza ; LEITE, Luca Araujo de Oliveira ; SILVA, Amanda Guimarães . Caderno de resumos III Encontro Virtual de grupos de pesquisa e laboratórios de História Ambiental Ambiental do Brasil. 2022.
-						(Organizadora).</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; COSTA, H. M. C. R ; ARAUJO, B. A. . Minicurso -  Novas possibilidades de análise através da História Ambienatal: olhar sobre as relações entre humanos e não-humanos. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; COSTA, H. M. C. R . História Ambiental: a natureza em diálogos interdisciplinares. 2021.
-						(Coordenadora de Simpósio Temático).</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; SALES, G. P. S. ; COSTA, H. M. C. R ; MOREIRA, P. F. . Caderno de resumos II Encontro Virtual de grupos de pesquisa e laboratórios de História Ambiental Ambiental do Brasil. 2021.
-						(Organizadora).</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>19º Seminário Nacional de História da Ciência e da Tecnologia (19SNHCT).Se essa rua fosse minha eu mandava arborizar: história ambiental urbana na cidade do Rio de Janeiro. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Que doidice é essa: projeto colonial, exclusão social e loucura | Instituto Pretos Novos. 2024. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Quilombo, um teto para os sambistas | Instituto Pretos Novos. 2024. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>15 anos da Lei 11.645/2008 e as questões indígenas na escola: desafios e  e  potencialidades | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>África e diáspora: o perigo da história única | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Ainda sim me levanto: os arquétipos iorubás e a insubmissão feminina | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Encontro Internacional História &amp; Parcerias.ÁRVORES E CIDADE: A ARBORIZAÇÃO URBANA VOLUNTÁRIA NO RIO DE JANEIRO.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Favela: reafirmando a integração de cidade e sociedade | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Habemus Muquifu: Museu dos Quilombos e Favelas Urbana | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>História, Ambiente e Conhecimento no Antropoceno.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>O Afro-Patrimônio de Belo Horizonte | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Periferia e sustentabilidade | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Racismo Ambiental | Instituto Pretos Novos. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>XI Encontro de Pesquisa em História Ephis UFMG Narrativas em disputa: nostalgia, identidades e apropriações do passado.Arborização urbana voluntária: dinâmicas da natureza urbana no Rio de Janeiro.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>X Seminário de História Ambiental - Meio Ambiente, História e Ensino. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>XVII Semana de História Política da UERJ.Árvores urbanas: história ambiental e arborização na cidade do Rio de Janeiro (1992-2022). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>XVII Semana de História Política da UERJ.Árvores urbanas: história ambiental e arborização na cidade do Rio de Janeiro (1992-2022). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>8o Seminário Fluminense de Pós-Graduandos em História | 8a Jornada de Pós-Graduação em História das Ciências e da Saúde.Grupos voluntários de arborização urbana: interação socioambiental na cidade do Rio de Janeiro (1992-2022). 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>III Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Lauch of the Atlas of the Other World.A favela?s strategies and dynamics  to respond to changes in its  urban ecosystem  Morro da Babilônia.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>X Encontro de Pesquisa em História da EPHIS UFMG ? Tempo, Memória e Reminiscência: o (re)fazer histórico e suas perspectivas. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>31° Simpósio Nacional de História: História, Verdade e Tecnologia.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Bíblia - Oralidade e cultura africana | Instituto Pretos Novos. 2021. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Darwin Day UFRJ 2021. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Festival do Conhecimento UFRJ - Futuros Possíveis. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>II Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>IV Encontro Fluminense de Arborização urbana. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>PRÉ-ENCONTRO NACIONAL DOS PLANTADORES DE ÁRVORES.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; FARIAS, Millena Souza ; LEITE, Luca Araujo de Oliveira ; SALES, G. P. S. ; SILVA, Amanda Guimarães . IV Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; FARIAS, Millena Souza ; LEITE, Luca Araujo de Oliveira ; MOREIRA, P. F. ; SALES, G. P. S. ; SILVA, Amanda Guimarães . III Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Natasha Augusto Barbosa</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>BARBOSA, N. A.; ARAUJO, B. A. ; COSTA, H. M. C. R ; SALES, G. P. S. ; MOREIRA, P. F. . II Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>MONTEIRO, R.. Sintomas visuais do luto: a filosofia da imagem de Georges Didi-Huberman na análise da obra de Käthe Kollwitz (1914 1945). 2023.
-						(Palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>MONTEIRO, R.. O Modernismo e os 100 anos da Semana de Arte Moderna. 2022.
-						(Podcast).</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>32º Simpósio Nacional de História da ANPUH.A experiência da I Guerra em imagens de luto: uma análise da obra de Käthe Kollwitz (1914 1945).
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>I Jornada de estudos em pensamento crítico contemporâneo: experiências, memórias e mediações das crises do século XX.Como olhar as imagens de luto?: uma análise da obra de Käthe Kollwitz (1914-45). 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>11ª Semana de Integração Acadêmica da UFRJ.Quase heróis: os inválidos da Primeira Guerra Mundial em Portugal.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Jornada de estudos históricos Prof. Manoel Salgado Guimarães.MEDIAÇÕES E SINTOMAS DO LUTO: UMA ANÁLISE DA OBRA DE KÄTHE KOLLWITZ (1914-1945).
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>XVIII Semana de História da UERJ "Os caminhos da democracia"."Alguma coisa, mesmo assim, ali se mostra": sintomas visuais do luto na obra de Käthe Kollwitz (1914-1945).
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>37ª Semana de História da UFJF.A obra de Käthe Kollwitz e o vazio na representação do luto (1914 - 1945).
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Jornada de História da UFBA: História em debate.Torre de mães: a agência feminina na obra de Käthe Kollwitz (1914 - 1945).
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Semana de História PUC-Rio 2021.Aqui jaz o melhor da juventude alemã: uma análise da geometria da memória na obra de Käthe Kollwitz (1914 1945).
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Renata Dias Pinto Monteiro</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial).Käthe Kollwitz: a arte como expressão do luto e da guerra. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Rodrigo Franco da Costa</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>COSTA, Rodrigo Franco da.. ?A HISTORIOGRAFIA E A PENÍNSULA IBÉRICA - TENDÊNCIAS HISTORIOGRÁFICAS PARA UMA HISTÓRIA DAS MULTIDÕES?. 2023. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Rodrigo Franco da Costa</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>COSTA, Rodrigo Franco da.. Os repúblicos e a Restauração de Portugal de 1640: agências sociais, cultura política e circulação de ideias. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Tiago Gomes da Silva</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>SILVA, T. G.; SANTOS, C. V. S . Dossiê Cinema e Sociedade: perspectivas e abordagens. 2021. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Vanderlei Marinho Costa</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>COSTA, Vanderlei Marinho. Estudando tópicos de história do século XX através da história das HQs. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>MENDONÇA, Vanessa de. Introdução ao Grego Antigo II. 2023. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>MENDONÇA, Vanessa de. Introdução ao Grego Antigo. 2022. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>GAIA, D. V. ; PAREDES, Gabriel ;MENDONÇA, Vanessa de. SENSÍVEL E O INVISÍVEL: RELIGIÕES, CRENÇAS E RITUAIS NOS MUNDOS ANTIGOS. 2022. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Vanessa de Mendonça Rodrigues dos Santos</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>MENDONÇA, Vanessa de. Um estudo sobre grafites: entre Língua, História e Sociedade. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva. Parecerista na avaliação de proposta de livro (Instituto Federal de Santa Catarina - IFC). 2023.
-						(Parecerista ad hoc).</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva. Parecerista ad hoc da revista Monções (UFGD). 2021.
-						(Parecerista ad hoc).</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Vicente Gil da Silva</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C227" t="inlineStr">
         <is>
           <t>Vicente Gil da Silva. Parecerista ad hoc do Primeiro Prêmio ANPUH-PR de Dissertações e Tese, promovido pela Associação Nacional de História ? Seção ANPUH-PARANÁ. 2021.
 						(Parecerista ad hoc).</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Vinner Stutz de Oliveira</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>4º Simpósio Sudeste da ABHR.Da Figueira ao Templo.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Vinner Stutz de Oliveira</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>XI Seminário Interno do Programa de Pósgraduação em História Social: Experiências e saberes: História, política, tecnologias e resistências.Dos cantões da Suíça à serra de Macaé: imigração, trabalho e pertencimento na imigração suíça e alemã à Serra Fluminense no século XIX. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
